--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem1/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem1/incorrect_predictions.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Low Power Returning home .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Low Power Returning home .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Returning home</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Low Power Returning home .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land</t>
+          <t>Low Power Returning home</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Return to Home will now trigger Auto Landing</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8-15</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Low Power Returning home .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Low Power Returning home .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Returning home</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,21 +687,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Low Power Returning home .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Low Power Returning home</t>
+          <t>Critically Low Voltage Aircraft will land</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,7 +712,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
